--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1600.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1600.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.264812527187186</v>
+        <v>0.5841821432113647</v>
       </c>
       <c r="B1">
-        <v>2.755890203365984</v>
+        <v>1.456153512001038</v>
       </c>
       <c r="C1">
-        <v>5.25611558747234</v>
+        <v>6.055192470550537</v>
       </c>
       <c r="D1">
-        <v>1.912246614843766</v>
+        <v>1.844111680984497</v>
       </c>
       <c r="E1">
-        <v>0.954862813302966</v>
+        <v>1.587704300880432</v>
       </c>
     </row>
   </sheetData>
